--- a/data/trans_bre/P19C02-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P19C02-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.466300698334701</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10.91524917044606</v>
+        <v>10.91524917044607</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03316815081254538</v>
@@ -649,7 +649,7 @@
         <v>0.1047321307890701</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3439599620415284</v>
+        <v>0.3439599620415286</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.353939828167316</v>
+        <v>-4.861219317302461</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.827886746004092</v>
+        <v>-1.68114688676192</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.113739519577832</v>
+        <v>-0.7764884199541775</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.738874788632843</v>
+        <v>4.585276374879034</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1672157301380237</v>
+        <v>-0.1955017889827193</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.06845637774661843</v>
+        <v>-0.0678417296784018</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.03238593817963098</v>
+        <v>-0.0224010409562839</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.132763184349305</v>
+        <v>0.131836162199369</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.0892224366022</v>
+        <v>5.459064504813173</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.003493336794906</v>
+        <v>7.181147221762298</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.038626208665093</v>
+        <v>8.332338005678265</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.14060950273664</v>
+        <v>16.35009927935459</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3249310165592864</v>
+        <v>0.2781927356581875</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3202804354642573</v>
+        <v>0.329390467524276</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.26509246097678</v>
+        <v>0.2780773503985814</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6256156171625605</v>
+        <v>0.5746163648296588</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.261733789913386</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.982351517397558</v>
+        <v>2.982351517397569</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1010796109197152</v>
@@ -749,7 +749,7 @@
         <v>0.1214467807559653</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.06681912145312141</v>
+        <v>0.06681912145312166</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.243764159116537</v>
+        <v>-1.809743552847631</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.476071408712675</v>
+        <v>-4.559156547816317</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.5703874404726506</v>
+        <v>-1.017509079919916</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.681107447259332</v>
+        <v>-1.763400467619038</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.07786878130234272</v>
+        <v>-0.0646759745412155</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1369888131664874</v>
+        <v>-0.1385341915870441</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01589262456218367</v>
+        <v>-0.02983167599985549</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0359373501550274</v>
+        <v>-0.03693468799350832</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.863552153102521</v>
+        <v>7.021456392492174</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.313636025907665</v>
+        <v>3.917149758340886</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.908517388666542</v>
+        <v>8.746548422033452</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.614822359421908</v>
+        <v>7.417236153747932</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2914277139854557</v>
+        <v>0.2929439050519221</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1506799481428934</v>
+        <v>0.1400915202936467</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2739994735726929</v>
+        <v>0.2653673086047264</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1765593444903908</v>
+        <v>0.1795321530416836</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.7291780970748396</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.308428153228546</v>
+        <v>0.3084281532285571</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0556189283589593</v>
@@ -849,7 +849,7 @@
         <v>0.02041016372453679</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.006059985368524667</v>
+        <v>0.006059985368524886</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.372321845842543</v>
+        <v>-3.142211063794073</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.764097022091542</v>
+        <v>-3.231079872168643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.925580412494716</v>
+        <v>-4.535593330602465</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.052913218841347</v>
+        <v>-4.008743235148895</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.104587488150576</v>
+        <v>-0.1020354050545381</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.08241315805113229</v>
+        <v>-0.09633817307453597</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1053763290340127</v>
+        <v>-0.1176561858354698</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.07604953955269948</v>
+        <v>-0.07580326347280139</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.92867898207181</v>
+        <v>5.970590074826597</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.775398913179473</v>
+        <v>6.07425569037557</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.69776226761609</v>
+        <v>5.922850447173158</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.646988708236285</v>
+        <v>4.741077307987021</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2110337691301881</v>
+        <v>0.2192051808545767</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2312344919744739</v>
+        <v>0.2070195549900024</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1710537170484462</v>
+        <v>0.1782947363264098</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.09742459539472487</v>
+        <v>0.09696835596102156</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-2.12410194025654</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.255965572350382</v>
+        <v>-2.255965572350371</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02417847433398002</v>
@@ -949,7 +949,7 @@
         <v>-0.05725015310515283</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.04199502210079902</v>
+        <v>-0.04199502210079882</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.19961165463177</v>
+        <v>-7.296877966826357</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.096720954445546</v>
+        <v>-1.437180128226857</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.355450274298255</v>
+        <v>-8.670917000746938</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.103410582581539</v>
+        <v>-7.214902892495799</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1700000610783461</v>
+        <v>-0.1759384083804599</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02863249829350684</v>
+        <v>-0.03748023873060773</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2325597617834937</v>
+        <v>-0.220788270836414</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1259962110241785</v>
+        <v>-0.1271343798772822</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.158730553741677</v>
+        <v>8.084067856676446</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.60788667337951</v>
+        <v>12.36232050641938</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.691680257039953</v>
+        <v>4.812991057382564</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.897373786869366</v>
+        <v>2.363440551795511</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2223741283014932</v>
+        <v>0.2239785460396971</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.400897647346469</v>
+        <v>0.3973299403190286</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1431304809273563</v>
+        <v>0.1422462611839281</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.0373182962442116</v>
+        <v>0.04623388021452773</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.123664262100694</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.389345137249498</v>
+        <v>1.389345137249504</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01781850397663592</v>
@@ -1049,7 +1049,7 @@
         <v>0.06067879601594457</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.0293197882217193</v>
+        <v>0.02931978822171942</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.091098463854736</v>
+        <v>-2.05699199544704</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.753484807417845</v>
+        <v>-0.8316012800007605</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3021111677524169</v>
+        <v>-0.4414310598926289</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.9995121470221848</v>
+        <v>-0.9946450723701314</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.06995292077324923</v>
+        <v>-0.06716110038730586</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.02567180914473582</v>
+        <v>-0.02661824301116426</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.008400398745675755</v>
+        <v>-0.01195756669937251</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.02104742082692846</v>
+        <v>-0.01998340921401999</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.734688202126192</v>
+        <v>3.028180950866294</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.082185318620391</v>
+        <v>3.958048432991079</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.934796397083586</v>
+        <v>4.717234629191454</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.796187300380248</v>
+        <v>3.714818322069196</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1011496192016712</v>
+        <v>0.1108597922396787</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.145285344588099</v>
+        <v>0.138242331896253</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1456512998782673</v>
+        <v>0.1395055346494488</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.08232048664217026</v>
+        <v>0.08093468937472546</v>
       </c>
     </row>
     <row r="19">
